--- a/Input_Data/week4/ACIDD_Exp_TOC.xlsx
+++ b/Input_Data/week4/ACIDD_Exp_TOC.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nicholasbaetge/GITHUB/eemb144l/Input_Data/week4/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28A793F3-7141-7C46-AB74-62CE6D6C8F65}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46DC40B7-CFA3-AB4B-8BF4-3DD1187FD997}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10880" yWindow="2860" windowWidth="27240" windowHeight="16440" activeTab="1" xr2:uid="{30A011D2-5D6D-1149-8613-6EA1DCB4535E}"/>
+    <workbookView xWindow="10880" yWindow="2860" windowWidth="27240" windowHeight="16440" xr2:uid="{30A011D2-5D6D-1149-8613-6EA1DCB4535E}"/>
   </bookViews>
   <sheets>
     <sheet name="Metadata" sheetId="2" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="596" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="613" uniqueCount="64">
   <si>
     <t>Experiment</t>
   </si>
@@ -175,6 +175,57 @@
   </si>
   <si>
     <t>PTOC_sd</t>
+  </si>
+  <si>
+    <t>DNA_SampleID</t>
+  </si>
+  <si>
+    <t>ASH171-A0_S293</t>
+  </si>
+  <si>
+    <t>ASH171-A6_S295</t>
+  </si>
+  <si>
+    <t>ASH171-B0_S293</t>
+  </si>
+  <si>
+    <t>ASH171-B6_S296</t>
+  </si>
+  <si>
+    <t>ASH171-C0_S294</t>
+  </si>
+  <si>
+    <t>ASH171-C6_S297</t>
+  </si>
+  <si>
+    <t>ASH171-D0_S294</t>
+  </si>
+  <si>
+    <t>ASH171-D6_S298</t>
+  </si>
+  <si>
+    <t>ASH172-A0_S299</t>
+  </si>
+  <si>
+    <t>ASH172-A5_S301</t>
+  </si>
+  <si>
+    <t>ASH172-B0_S299</t>
+  </si>
+  <si>
+    <t>ASH172-B5_S302</t>
+  </si>
+  <si>
+    <t>ASH172-C0_S300</t>
+  </si>
+  <si>
+    <t>ASH172-C5_S303</t>
+  </si>
+  <si>
+    <t>ASH172-D0_S300</t>
+  </si>
+  <si>
+    <t>ASH172-D5_S304</t>
   </si>
 </sst>
 </file>
@@ -538,15 +589,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2397EF9F-5D6E-084A-86F4-A5094020CB25}">
-  <dimension ref="A1:Q85"/>
+  <dimension ref="A1:R85"/>
   <sheetViews>
-    <sheetView topLeftCell="A35" workbookViewId="0">
-      <selection activeCell="D72" sqref="D72"/>
+    <sheetView tabSelected="1" topLeftCell="A57" workbookViewId="0">
+      <selection activeCell="E20" sqref="E20:E23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -598,8 +649,11 @@
       <c r="Q1" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>17</v>
       </c>
@@ -651,8 +705,11 @@
       <c r="Q2" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>17</v>
       </c>
@@ -705,7 +762,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>17</v>
       </c>
@@ -758,7 +815,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>17</v>
       </c>
@@ -811,7 +868,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>17</v>
       </c>
@@ -864,7 +921,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>17</v>
       </c>
@@ -917,7 +974,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>17</v>
       </c>
@@ -969,8 +1026,11 @@
       <c r="Q8" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R8" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>17</v>
       </c>
@@ -1023,7 +1083,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>17</v>
       </c>
@@ -1076,7 +1136,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>17</v>
       </c>
@@ -1129,7 +1189,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>17</v>
       </c>
@@ -1182,7 +1242,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>17</v>
       </c>
@@ -1234,8 +1294,11 @@
       <c r="Q13" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R13" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>17</v>
       </c>
@@ -1288,7 +1351,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>17</v>
       </c>
@@ -1341,7 +1404,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>17</v>
       </c>
@@ -1394,7 +1457,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>17</v>
       </c>
@@ -1447,7 +1510,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>17</v>
       </c>
@@ -1500,7 +1563,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>17</v>
       </c>
@@ -1552,8 +1615,11 @@
       <c r="Q19" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R19" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>17</v>
       </c>
@@ -1606,7 +1672,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>17</v>
       </c>
@@ -1659,7 +1725,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>17</v>
       </c>
@@ -1712,7 +1778,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>17</v>
       </c>
@@ -1765,7 +1831,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>17</v>
       </c>
@@ -1817,8 +1883,11 @@
       <c r="Q24" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R24" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="25" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>17</v>
       </c>
@@ -1871,7 +1940,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>17</v>
       </c>
@@ -1924,7 +1993,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>17</v>
       </c>
@@ -1977,7 +2046,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>17</v>
       </c>
@@ -2030,7 +2099,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>17</v>
       </c>
@@ -2083,7 +2152,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>17</v>
       </c>
@@ -2135,8 +2204,11 @@
       <c r="Q30" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="31" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R30" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="31" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>17</v>
       </c>
@@ -2189,7 +2261,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>17</v>
       </c>
@@ -2242,7 +2314,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>17</v>
       </c>
@@ -2295,7 +2367,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>17</v>
       </c>
@@ -2348,7 +2420,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>17</v>
       </c>
@@ -2400,8 +2472,11 @@
       <c r="Q35" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="36" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R35" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="36" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>17</v>
       </c>
@@ -2454,7 +2529,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>17</v>
       </c>
@@ -2507,7 +2582,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>17</v>
       </c>
@@ -2560,7 +2635,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>17</v>
       </c>
@@ -2613,7 +2688,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>17</v>
       </c>
@@ -2666,7 +2741,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>17</v>
       </c>
@@ -2718,8 +2793,11 @@
       <c r="Q41" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="42" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R41" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="42" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>17</v>
       </c>
@@ -2772,7 +2850,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>17</v>
       </c>
@@ -2825,7 +2903,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>17</v>
       </c>
@@ -2878,7 +2956,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>17</v>
       </c>
@@ -2931,7 +3009,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>36</v>
       </c>
@@ -2983,8 +3061,11 @@
       <c r="Q46" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="47" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R46" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="47" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>36</v>
       </c>
@@ -3037,7 +3118,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>36</v>
       </c>
@@ -3090,7 +3171,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>36</v>
       </c>
@@ -3143,7 +3224,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>36</v>
       </c>
@@ -3196,7 +3277,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>36</v>
       </c>
@@ -3249,7 +3330,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>36</v>
       </c>
@@ -3301,8 +3382,11 @@
       <c r="Q52" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="53" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R52" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="53" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>36</v>
       </c>
@@ -3355,7 +3439,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>36</v>
       </c>
@@ -3408,7 +3492,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>36</v>
       </c>
@@ -3461,7 +3545,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>36</v>
       </c>
@@ -3513,8 +3597,11 @@
       <c r="Q56" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="57" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R56" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="57" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>36</v>
       </c>
@@ -3567,7 +3654,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>36</v>
       </c>
@@ -3620,7 +3707,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>36</v>
       </c>
@@ -3673,7 +3760,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>36</v>
       </c>
@@ -3726,7 +3813,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>36</v>
       </c>
@@ -3778,8 +3865,11 @@
       <c r="Q61" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R61" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="62" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>36</v>
       </c>
@@ -3832,7 +3922,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="63" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>36</v>
       </c>
@@ -3885,7 +3975,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>36</v>
       </c>
@@ -3938,7 +4028,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>36</v>
       </c>
@@ -3991,7 +4081,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
         <v>36</v>
       </c>
@@ -4043,8 +4133,11 @@
       <c r="Q66" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="67" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R66" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="67" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>36</v>
       </c>
@@ -4097,7 +4190,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
         <v>36</v>
       </c>
@@ -4150,7 +4243,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
         <v>36</v>
       </c>
@@ -4203,7 +4296,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
         <v>36</v>
       </c>
@@ -4256,7 +4349,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
         <v>36</v>
       </c>
@@ -4308,8 +4401,11 @@
       <c r="Q71" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R71" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="72" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
         <v>36</v>
       </c>
@@ -4362,7 +4458,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="73" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
         <v>36</v>
       </c>
@@ -4415,7 +4511,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
         <v>36</v>
       </c>
@@ -4468,7 +4564,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
         <v>36</v>
       </c>
@@ -4521,7 +4617,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
         <v>36</v>
       </c>
@@ -4573,8 +4669,11 @@
       <c r="Q76" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="77" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R76" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="77" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
         <v>36</v>
       </c>
@@ -4627,7 +4726,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
         <v>36</v>
       </c>
@@ -4680,7 +4779,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
         <v>36</v>
       </c>
@@ -4733,7 +4832,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
         <v>36</v>
       </c>
@@ -4786,7 +4885,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
         <v>36</v>
       </c>
@@ -4838,8 +4937,11 @@
       <c r="Q81" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="82" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R81" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="82" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
         <v>36</v>
       </c>
@@ -4892,7 +4994,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="83" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
         <v>36</v>
       </c>
@@ -4945,7 +5047,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
         <v>36</v>
       </c>
@@ -4998,7 +5100,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
         <v>36</v>
       </c>
@@ -5060,7 +5162,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F72FA73D-ECE8-154E-B2BF-6C456FB53BE0}">
   <dimension ref="A1:G77"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
+    <sheetView topLeftCell="A52" workbookViewId="0">
       <selection activeCell="I62" sqref="I62"/>
     </sheetView>
   </sheetViews>

--- a/Input_Data/week4/ACIDD_Exp_TOC.xlsx
+++ b/Input_Data/week4/ACIDD_Exp_TOC.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nicholasbaetge/GITHUB/eemb144l/Input_Data/week4/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46DC40B7-CFA3-AB4B-8BF4-3DD1187FD997}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B0F948A-2701-644C-8A2D-051FEA99F469}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="10880" yWindow="2860" windowWidth="27240" windowHeight="16440" xr2:uid="{30A011D2-5D6D-1149-8613-6EA1DCB4535E}"/>
   </bookViews>
@@ -591,8 +591,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2397EF9F-5D6E-084A-86F4-A5094020CB25}">
   <dimension ref="A1:R85"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A57" workbookViewId="0">
-      <selection activeCell="E20" sqref="E20:E23"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="R2" sqref="R2:R85"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3865,9 +3865,6 @@
       <c r="Q61" t="b">
         <v>0</v>
       </c>
-      <c r="R61" t="s">
-        <v>59</v>
-      </c>
     </row>
     <row r="62" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
@@ -3921,6 +3918,9 @@
       <c r="Q62" t="b">
         <v>1</v>
       </c>
+      <c r="R62" t="s">
+        <v>59</v>
+      </c>
     </row>
     <row r="63" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
@@ -4401,9 +4401,6 @@
       <c r="Q71" t="b">
         <v>0</v>
       </c>
-      <c r="R71" t="s">
-        <v>61</v>
-      </c>
     </row>
     <row r="72" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
@@ -4457,6 +4454,9 @@
       <c r="Q72" t="b">
         <v>1</v>
       </c>
+      <c r="R72" t="s">
+        <v>61</v>
+      </c>
     </row>
     <row r="73" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
@@ -4937,9 +4937,6 @@
       <c r="Q81" t="b">
         <v>0</v>
       </c>
-      <c r="R81" t="s">
-        <v>63</v>
-      </c>
     </row>
     <row r="82" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
@@ -4992,6 +4989,9 @@
       </c>
       <c r="Q82" t="b">
         <v>1</v>
+      </c>
+      <c r="R82" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="83" spans="1:18" x14ac:dyDescent="0.2">
